--- a/medicine/Psychotrope/Ter_Dolen_(bière)/Ter_Dolen_(bière).xlsx
+++ b/medicine/Psychotrope/Ter_Dolen_(bière)/Ter_Dolen_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ter_Dolen_(bi%C3%A8re)</t>
+          <t>Ter_Dolen_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ter Dolen est une  bière d'abbaye belge produite par la brasserie de château De Dool (en néerlandais : Kasteelbrouwerij De Dool) située à Houthalen-Helchteren dans la province de Limbourg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ter_Dolen_(bi%C3%A8re)</t>
+          <t>Ter_Dolen_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen-Âge, le château Ter Dolen appelé aussi Den Dool ou De Dool est la propriété et la résidence d'été des abbés de l'abbaye de Saint-Trond. La première date mentionnée est 1282. Les abbés de Saint-Trond occupent régulièrement le château jusqu'à la Révolution française, période pendant laquelle le château est vendu à un particulier. C'est en 1994 que la brasserie actuelle s'installe au château et commence à brasser la Ter Dolen Blond qui devient de facto la première bière d’abbaye produite au Limbourg belge.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ter_Dolen_(bi%C3%A8re)</t>
+          <t>Ter_Dolen_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe actuellement cinq bières d'abbaye traditionnelles de haute fermentation commercialisées sous la protection du logo Bière belge d'Abbaye reconnue :
 Ter Dolen Blond est une bière blonde légèrement amère titrant 6,1 % d'alcool. En 2010, elle a été élue par le quotidien De Standaard 3e meilleure bière d’abbaye de Belgique.
 Ter Dolen Donker est une bière brune légèrement sucrée et à la saveur douce titrant 7,1 % d'alcool.
 Ter Dolen Tripel est une bière blonde cuivrée triple composée de deux sortes de malt et deux sortes de houblon belges et titrant 8,1 % d'alcool.
-Ter Dolen Kriek est une bière rouge sucrée non filtrée additionnée de jus de cerises frais titrant 4,5 % d'alcool. C'est la seule kriek d'abbaye au monde[1].
+Ter Dolen Kriek est une bière rouge sucrée non filtrée additionnée de jus de cerises frais titrant 4,5 % d'alcool. C'est la seule kriek d'abbaye au monde.
 Ter Dolen Armand, est une bière blonde légère et rafraîchissante titrant 7 % d'alcool. Elle est brassée depuis 2011 en hommage à Armand Desplenter ingénieur agronome et cofondateur de la brasserie.</t>
         </is>
       </c>
